--- a/poznamky/conconi-test/14022016/140220016-conconi-elite.xlsx
+++ b/poznamky/conconi-test/14022016/140220016-conconi-elite.xlsx
@@ -329,11 +329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:axId val="-2072421992"/>
         <c:axId val="-2130669112"/>
-        <c:axId val="-2130358584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130669112"/>
+        <c:axId val="-2072421992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,12 +343,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130358584"/>
+        <c:crossAx val="-2130669112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130358584"/>
+        <c:axId val="-2130669112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130669112"/>
+        <c:crossAx val="-2072421992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17767,11 +17767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2056646872"/>
-        <c:axId val="-2056642616"/>
+        <c:axId val="-2072089480"/>
+        <c:axId val="-2129964280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2056646872"/>
+        <c:axId val="-2072089480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17781,12 +17781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056642616"/>
+        <c:crossAx val="-2129964280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2056642616"/>
+        <c:axId val="-2129964280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17797,7 +17797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056646872"/>
+        <c:crossAx val="-2072089480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18139,8 +18139,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080017400"/>
-        <c:axId val="-2130215128"/>
+        <c:axId val="-2079841128"/>
+        <c:axId val="-2072653048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -18235,11 +18235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080017400"/>
-        <c:axId val="-2130215128"/>
+        <c:axId val="-2079841128"/>
+        <c:axId val="-2072653048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2080017400"/>
+        <c:axId val="-2079841128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60.0"/>
@@ -18251,13 +18251,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130215128"/>
+        <c:crossAx val="-2072653048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130215128"/>
+        <c:axId val="-2072653048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="110.0"/>
@@ -18270,7 +18270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080017400"/>
+        <c:crossAx val="-2079841128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/poznamky/conconi-test/14022016/140220016-conconi-elite.xlsx
+++ b/poznamky/conconi-test/14022016/140220016-conconi-elite.xlsx
@@ -329,11 +329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2072421992"/>
-        <c:axId val="-2130669112"/>
+        <c:axId val="-2122750488"/>
+        <c:axId val="-2122658952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2072421992"/>
+        <c:axId val="-2122750488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,12 +343,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130669112"/>
+        <c:crossAx val="-2122658952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130669112"/>
+        <c:axId val="-2122658952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072421992"/>
+        <c:crossAx val="-2122750488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17767,11 +17767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2072089480"/>
-        <c:axId val="-2129964280"/>
+        <c:axId val="2133734440"/>
+        <c:axId val="2133737432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2072089480"/>
+        <c:axId val="2133734440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17781,12 +17781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129964280"/>
+        <c:crossAx val="2133737432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129964280"/>
+        <c:axId val="2133737432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17797,7 +17797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072089480"/>
+        <c:crossAx val="2133734440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18139,8 +18139,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079841128"/>
-        <c:axId val="-2072653048"/>
+        <c:axId val="2133817256"/>
+        <c:axId val="2133820600"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -18235,11 +18235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079841128"/>
-        <c:axId val="-2072653048"/>
+        <c:axId val="2133817256"/>
+        <c:axId val="2133820600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079841128"/>
+        <c:axId val="2133817256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60.0"/>
@@ -18251,13 +18251,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072653048"/>
+        <c:crossAx val="2133820600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2072653048"/>
+        <c:axId val="2133820600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="110.0"/>
@@ -18270,7 +18270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079841128"/>
+        <c:crossAx val="2133817256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18714,11 +18714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1441"/>
+  <dimension ref="A1:J1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18726,7 +18726,7 @@
     <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18745,8 +18745,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <f>MAX(D:D)</f>
+        <v>299</v>
+      </c>
+      <c r="J1">
+        <f>MAX(E:E)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18774,7 +18782,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18802,7 +18810,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18830,7 +18838,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18858,7 +18866,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18886,7 +18894,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18914,7 +18922,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18942,7 +18950,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18970,7 +18978,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -18998,7 +19006,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19026,7 +19034,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -19054,7 +19062,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -19082,7 +19090,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -19110,7 +19118,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -19138,7 +19146,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
